--- a/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
+++ b/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Тестирование\OrderCheeseInForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA8B1F-1FBB-4617-B35E-03BD8F9A637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6333A0E9-5F46-497D-AC5F-D7AAB3B5CF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,25 @@
     <sheet name="Луганск" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="72">
   <si>
     <t>пример заполнения</t>
   </si>
@@ -104,9 +112,6 @@
   </si>
   <si>
     <t>Сыр Боккончини копченый 40% 100г/8шт ТМ Папа Может</t>
-  </si>
-  <si>
-    <t>Сыр Скаморца свежий 100г/8шт ТМ Папа Может</t>
   </si>
   <si>
     <t>Творожный Сыр 60% Сливочный  СТМ "ПапаМожет"- 140гр</t>
@@ -353,26 +358,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="26"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -403,77 +408,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -846,85 +873,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -932,151 +959,151 @@
       <c r="A4" s="1">
         <v>5038435</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0.18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="11">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="11">
         <f>E5/16.5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>3.2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
       <c r="A6" s="1">
         <v>5038459</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0.18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="11">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="11">
         <f>E7/16.5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>3.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="1">
         <v>5038411</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0.18</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="3">
         <v>8785242</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11">
         <f>E9/16.5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>3.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1084,201 +1111,201 @@
       <c r="A10" s="1">
         <v>5038398</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0.18</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H11" si="0">G10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="H10" s="11">
+        <f>G10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="H11" s="11">
+        <f>G11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
         <v>8785259</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="11">
         <f>E12/16.5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="3">
         <v>5038855</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" ref="H13:H16" si="1">G13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="11">
+        <f>G13*D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>5039647</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11">
+        <f>G14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="3">
         <v>5038831</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11">
+        <f>G15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11">
+        <f>G16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>5522704</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>3.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1287,152 +1314,152 @@
         <v>1018950</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" ref="H18:H20" si="2">G18*D18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11">
+        <f>G18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>1018967</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.18</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11">
+        <f>G19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.2</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="H20" s="11">
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <v>10</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0.2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>3.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1443,23 +1470,23 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F30" si="3">D24/C24</f>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F29" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" ref="H24:H30" si="4">G24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="1">G24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
@@ -1468,23 +1495,23 @@
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9">
-        <f t="shared" si="3"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
@@ -1493,659 +1520,634 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>8444170</v>
+        <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9">
-        <f t="shared" si="3"/>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <v>16</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11">
-        <v>16</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
+      <c r="C29" s="13">
+        <v>6</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>5034819</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A30" s="5">
+        <v>5041251</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="17">
+        <f>E30/15</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="17">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3">
+        <v>2981244</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>5041251</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="9">
-        <f>E31/15</f>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="11">
+        <f>E31/7.8</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
+      <c r="I31" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="11">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9">
-        <f>E32/7.8</f>
+      <c r="C32" s="13">
+        <v>5</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11">
+        <f>E32/16.5</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H32" s="11">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>21</v>
+      <c r="I32" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9">
-        <f>E33/16.5</f>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:F38" si="2">D33/C33</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="H33" s="9">
-        <f>E33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:F39" si="5">D34/C34</f>
+      <c r="C34" s="13">
+        <v>28</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:H45" si="6">G34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="H34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C35" s="13">
+        <v>16</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="11">
+        <f>D35/C35</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13">
         <v>16</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9">
-        <f>D36/C36</f>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="13">
         <v>16</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="11">
+        <f t="shared" ref="F39:F44" si="4">D39/C39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:H44" si="5">D39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="26">
+        <v>8444903</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="13">
+        <v>8</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="11">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9">
-        <f t="shared" ref="F40:F45" si="7">D40/C40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19">
-        <v>8444903</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="26">
+        <v>8444910</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="13">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9">
-        <f t="shared" si="7"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
-        <v>8444910</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="26">
+        <v>8444927</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9">
-        <f t="shared" si="7"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19">
-        <v>8444927</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9">
-        <f t="shared" si="7"/>
+      <c r="A43" s="26">
+        <v>6600454</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="13">
+        <v>12</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19">
-        <v>6600454</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="A44" s="26">
+        <v>6600447</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="13">
         <v>12</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9">
-        <f t="shared" si="7"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9"/>
+      <c r="H44" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19">
-        <v>6600447</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="A45" s="34">
+        <v>9752504</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="36">
+        <v>10</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38">
+        <f>E45/2</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="38">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="34">
+        <v>9752498</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="36">
+        <v>6</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38">
+        <f>E46/5</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="H46" s="38">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26">
+        <v>4421584</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="13">
         <v>12</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22">
-        <v>9752504</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="24">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26">
-        <f>E46/2</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="26">
-        <f>E46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="22">
-        <v>9752498</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="24">
-        <v>6</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
-        <f>E47/5</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="H47" s="26">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="11">
+        <f>D47/C47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="11">
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="19">
-        <v>4421584</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" s="26">
+        <v>4421577</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="11">
         <f>D48/C48</f>
         <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0.18</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48:H50" si="8">G48*D48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="19">
-        <v>4421577</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11">
-        <v>12</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9">
+      <c r="H48" s="11">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1">
+      <c r="A49" s="29">
+        <v>9985949</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="42">
+        <v>10</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44">
         <f>D49/C49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="G49" s="45">
+        <v>1</v>
+      </c>
+      <c r="H49" s="44">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="28">
-        <v>9985949</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="30">
-        <v>10</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="32">
-        <f>D50/C50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="4">
-        <f>SUM(H4:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6">
-        <f>H51+Бердянск!H51+Донецк!H51+Луганск!H51</f>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4">
+        <f>SUM(H4:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="8">
+        <f>H50+Бердянск!H50+Донецк!H50+Луганск!H50</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I50" xr:uid="{660D8807-D49F-434B-A98D-9CA0AF20865F}"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2156,86 +2158,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40277960-C070-4B89-8E9A-60D370D690E7}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF8CB91-2DBF-48E7-BFFB-3C15F0594BD0}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2243,151 +2245,151 @@
       <c r="A4" s="1">
         <v>5038435</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0.18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="11">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="11">
         <f>E5/16.5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>3.2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
       <c r="A6" s="1">
         <v>5038459</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0.18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="11">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="11">
         <f>E7/16.5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>3.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="1">
         <v>5038411</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0.18</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="3">
         <v>8785242</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11">
         <f>E9/16.5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>3.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2395,201 +2397,201 @@
       <c r="A10" s="1">
         <v>5038398</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0.18</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H11" si="0">G10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="H10" s="11">
+        <f>G10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="H11" s="11">
+        <f>G11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
         <v>8785259</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="11">
         <f>E12/16.5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="3">
         <v>5038855</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" ref="H13:H16" si="1">G13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="11">
+        <f>G13*D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>5039647</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11">
+        <f>G14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="3">
         <v>5038831</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11">
+        <f>G15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11">
+        <f>G16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>5522704</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>3.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2598,152 +2600,152 @@
         <v>1018950</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" ref="H18:H20" si="2">G18*D18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11">
+        <f>G18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>1018967</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.18</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11">
+        <f>G19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.2</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="H20" s="11">
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <v>10</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0.2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>3.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2754,23 +2756,23 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F30" si="3">D24/C24</f>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F29" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" ref="H24:H30" si="4">G24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="1">G24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
@@ -2779,23 +2781,23 @@
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9">
-        <f t="shared" si="3"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
@@ -2804,737 +2806,712 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>8444170</v>
+        <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9">
-        <f t="shared" si="3"/>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <v>16</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11">
-        <v>16</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
+      <c r="C29" s="13">
+        <v>6</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>5034819</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A30" s="5">
+        <v>5041251</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="17">
+        <f>E30/15</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="17">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3">
+        <v>2981244</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>5041251</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="9">
-        <f>E31/15</f>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="11">
+        <f>E31/7.8</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
+      <c r="I31" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="11">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9">
-        <f>E32/7.8</f>
+      <c r="C32" s="13">
+        <v>5</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11">
+        <f>E32/16.5</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H32" s="11">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>21</v>
+      <c r="I32" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9">
-        <f>E33/16.5</f>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="H33" s="9">
-        <f>E33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:F45" si="5">D34/C34</f>
+      <c r="C34" s="13">
+        <v>28</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:H45" si="6">G34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="H34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C35" s="13">
+        <v>16</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="11">
+        <f>D35/C35</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13">
         <v>16</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9">
-        <f>D36/C36</f>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="13">
         <v>16</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9">
-        <f t="shared" si="5"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="11">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9">
-        <f t="shared" si="5"/>
+      <c r="A40" s="26">
+        <v>8444903</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="13">
+        <v>8</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19">
-        <v>8444903</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="26">
+        <v>8444910</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="13">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9">
-        <f t="shared" si="5"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
-        <v>8444910</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="26">
+        <v>8444927</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9">
-        <f t="shared" si="5"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19">
-        <v>8444927</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9">
-        <f t="shared" si="5"/>
+      <c r="A43" s="26">
+        <v>6600454</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="13">
+        <v>12</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19">
-        <v>6600454</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="A44" s="26">
+        <v>6600447</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="13">
         <v>12</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9">
-        <f t="shared" si="5"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9"/>
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19">
-        <v>6600447</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="A45" s="34">
+        <v>9752504</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="36">
+        <v>10</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38">
+        <f>E45/2</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="38">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="34">
+        <v>9752498</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="36">
+        <v>6</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38">
+        <f>E46/5</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="H46" s="38">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26">
+        <v>4421584</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="13">
         <v>12</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22">
-        <v>9752504</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="24">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26">
-        <f>E46/2</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="26">
-        <f>E46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="22">
-        <v>9752498</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="24">
-        <v>6</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
-        <f>E47/5</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="H47" s="26">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="11">
+        <f>D47/C47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="11">
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="19">
-        <v>4421584</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" s="26">
+        <v>4421577</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="11">
         <f>D48/C48</f>
         <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0.18</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48:H50" si="7">G48*D48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="19">
-        <v>4421577</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11">
-        <v>12</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9">
+      <c r="H48" s="11">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1">
+      <c r="A49" s="29">
+        <v>9985949</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="42">
+        <v>10</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44">
         <f>D49/C49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="G49" s="45">
+        <v>1</v>
+      </c>
+      <c r="H49" s="44">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="28">
-        <v>9985949</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="30">
-        <v>10</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="32">
-        <f>D50/C50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="4">
-        <f>SUM(H4:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4">
+        <f>SUM(H4:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I51" xr:uid="{40277960-C070-4B89-8E9A-60D370D690E7}"/>
+  <autoFilter ref="A3:I3" xr:uid="{66F3959C-A5D4-4B34-888D-7D1006993C51}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F07297-EB52-498F-B9DF-6A75396E07F0}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD709AA-5649-45FB-818B-7DF45166C260}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3542,151 +3519,151 @@
       <c r="A4" s="1">
         <v>5038435</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0.18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="11">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="11">
         <f>E5/16.5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>3.2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
       <c r="A6" s="1">
         <v>5038459</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0.18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="11">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="11">
         <f>E7/16.5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>3.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="1">
         <v>5038411</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0.18</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="3">
         <v>8785242</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11">
         <f>E9/16.5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>3.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3694,201 +3671,201 @@
       <c r="A10" s="1">
         <v>5038398</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0.18</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H11" si="0">G10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="H10" s="11">
+        <f>G10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="H11" s="11">
+        <f>G11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
         <v>8785259</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="11">
         <f>E12/16.5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="3">
         <v>5038855</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" ref="H13:H16" si="1">G13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="11">
+        <f>G13*D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>5039647</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11">
+        <f>G14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="3">
         <v>5038831</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11">
+        <f>G15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11">
+        <f>G16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>5522704</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>3.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3897,152 +3874,152 @@
         <v>1018950</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" ref="H18:H20" si="2">G18*D18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11">
+        <f>G18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>1018967</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.18</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11">
+        <f>G19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.2</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="H20" s="11">
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <v>10</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0.2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>3.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4053,23 +4030,23 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F30" si="3">D24/C24</f>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F29" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" ref="H24:H30" si="4">G24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="1">G24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
@@ -4078,23 +4055,23 @@
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9">
-        <f t="shared" si="3"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
@@ -4103,737 +4080,712 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>8444170</v>
+        <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9">
-        <f t="shared" si="3"/>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <v>16</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11">
-        <v>16</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
+      <c r="C29" s="13">
+        <v>6</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>5034819</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A30" s="5">
+        <v>5041251</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="17">
+        <f>E30/15</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="17">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3">
+        <v>2981244</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>5041251</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="9">
-        <f>E31/15</f>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="11">
+        <f>E31/7.8</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
+      <c r="I31" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="11">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9">
-        <f>E32/7.8</f>
+      <c r="C32" s="13">
+        <v>5</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11">
+        <f>E32/16.5</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H32" s="11">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>21</v>
+      <c r="I32" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9">
-        <f>E33/16.5</f>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="H33" s="9">
-        <f>E33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:F45" si="5">D34/C34</f>
+      <c r="C34" s="13">
+        <v>28</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:H45" si="6">G34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="H34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C35" s="13">
+        <v>16</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="11">
+        <f>D35/C35</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13">
         <v>16</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9">
-        <f>D36/C36</f>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="13">
         <v>16</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9">
-        <f t="shared" si="5"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="11">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9">
-        <f t="shared" si="5"/>
+      <c r="A40" s="26">
+        <v>8444903</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="13">
+        <v>8</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19">
-        <v>8444903</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="26">
+        <v>8444910</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="13">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9">
-        <f t="shared" si="5"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
-        <v>8444910</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="26">
+        <v>8444927</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9">
-        <f t="shared" si="5"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19">
-        <v>8444927</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9">
-        <f t="shared" si="5"/>
+      <c r="A43" s="26">
+        <v>6600454</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="13">
+        <v>12</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19">
-        <v>6600454</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="A44" s="26">
+        <v>6600447</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="13">
         <v>12</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9">
-        <f t="shared" si="5"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9"/>
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19">
-        <v>6600447</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="A45" s="34">
+        <v>9752504</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="36">
+        <v>10</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38">
+        <f>E45/2</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="38">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="34">
+        <v>9752498</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="36">
+        <v>6</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38">
+        <f>E46/5</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="H46" s="38">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26">
+        <v>4421584</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="13">
         <v>12</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22">
-        <v>9752504</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="24">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26">
-        <f>E46/2</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="26">
-        <f>E46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="22">
-        <v>9752498</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="24">
-        <v>6</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
-        <f>E47/5</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="H47" s="26">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="11">
+        <f>D47/C47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="11">
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="19">
-        <v>4421584</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" s="26">
+        <v>4421577</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="11">
         <f>D48/C48</f>
         <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0.18</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48:H50" si="7">G48*D48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="19">
-        <v>4421577</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11">
-        <v>12</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9">
+      <c r="H48" s="11">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1">
+      <c r="A49" s="29">
+        <v>9985949</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="42">
+        <v>10</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44">
         <f>D49/C49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="G49" s="45">
+        <v>1</v>
+      </c>
+      <c r="H49" s="44">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="28">
-        <v>9985949</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="30">
-        <v>10</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="32">
-        <f>D50/C50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="4">
-        <f>SUM(H4:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4">
+        <f>SUM(H4:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I51" xr:uid="{28F07297-EB52-498F-B9DF-6A75396E07F0}"/>
+  <autoFilter ref="A3:I3" xr:uid="{2E155A2A-3304-4CE7-BD73-B1EBDD491D9E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458D544-983A-4AB6-9A30-9152471CF24E}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EF6B87-843F-49B6-84B7-219B748921B0}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4841,151 +4793,151 @@
       <c r="A4" s="1">
         <v>5038435</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0.18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="11">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="11">
         <f>E5/16.5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>3.2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="25.5">
       <c r="A6" s="1">
         <v>5038459</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0.18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="11">
+        <v>53</v>
+      </c>
+      <c r="C7" s="13">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="11">
         <f>E7/16.5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>3.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
       <c r="A8" s="1">
         <v>5038411</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0.18</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="25.5">
       <c r="A9" s="3">
         <v>8785242</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="11">
         <f>E9/16.5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>3.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4993,201 +4945,201 @@
       <c r="A10" s="1">
         <v>5038398</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0.18</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H11" si="0">G10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="H10" s="11">
+        <f>G10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="11">
+        <v>47</v>
+      </c>
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0.4</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9"/>
+      <c r="H11" s="11">
+        <f>G11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
         <v>8785259</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="11">
         <f>E12/16.5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>3.5</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="25.5">
       <c r="A13" s="3">
         <v>5038855</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="9">
-        <f t="shared" ref="H13:H16" si="1">G13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="11">
+        <f>G13*D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>5039647</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11">
+        <f>G14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="3">
         <v>5038831</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11">
+        <f>G15*D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="13">
+        <v>49</v>
+      </c>
+      <c r="C16" s="14">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11">
+        <f>G16*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>5522704</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="11">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>3.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5196,152 +5148,152 @@
         <v>1018950</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
+        <v>43</v>
+      </c>
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" ref="H18:H20" si="2">G18*D18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11">
+        <f>G18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>1018967</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="11">
+        <v>45</v>
+      </c>
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.18</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11">
+        <f>G19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>10</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.2</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="9"/>
+      <c r="H20" s="11">
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>3.5</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <v>10</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9">
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0.2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>3.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5352,23 +5304,23 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F30" si="3">D24/C24</f>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F29" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" ref="H24:H30" si="4">G24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="1">G24*D24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
@@ -5377,23 +5329,23 @@
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9">
-        <f t="shared" si="3"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="H25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
@@ -5402,652 +5354,627 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <v>8</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>8444170</v>
+        <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9">
-        <f t="shared" si="3"/>
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <v>16</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="H28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11">
-        <v>16</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
+      <c r="C29" s="13">
+        <v>6</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
-        <v>5034819</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A30" s="5">
+        <v>5041251</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="17">
+        <f>E30/15</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="17">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3">
+        <v>2981244</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A31" s="3">
-        <v>5041251</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="9">
-        <f>E31/15</f>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="11">
+        <f>E31/7.8</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
+      <c r="I31" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="11">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9">
-        <f>E32/7.8</f>
+      <c r="C32" s="13">
+        <v>5</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="11">
+        <f>E32/16.5</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H32" s="11">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>21</v>
+      <c r="I32" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="11">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9">
-        <f>E33/16.5</f>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="H33" s="9">
-        <f>E33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:F45" si="5">D34/C34</f>
+      <c r="C34" s="13">
+        <v>28</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:H45" si="6">G34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="H34" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="11">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C35" s="13">
+        <v>16</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="11">
+        <f>D35/C35</f>
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="11">
+        <v>32</v>
+      </c>
+      <c r="C36" s="13">
         <v>16</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9">
-        <f>D36/C36</f>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="H36" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="13">
         <v>16</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="9"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H38" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="11">
+        <v>40</v>
+      </c>
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9">
-        <f t="shared" si="5"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="11">
-        <v>16</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9">
-        <f t="shared" si="5"/>
+      <c r="A40" s="26">
+        <v>8444903</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="13">
+        <v>8</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19">
-        <v>8444903</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="26">
+        <v>8444910</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="13">
         <v>8</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9">
-        <f t="shared" si="5"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
-        <v>8444910</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="26">
+        <v>8444927</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9">
-        <f t="shared" si="5"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19">
-        <v>8444927</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9">
-        <f t="shared" si="5"/>
+      <c r="A43" s="26">
+        <v>6600454</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="13">
+        <v>12</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19">
-        <v>6600454</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="A44" s="26">
+        <v>6600447</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="13">
         <v>12</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9">
-        <f t="shared" si="5"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="9"/>
+      <c r="H44" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19">
-        <v>6600447</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="A45" s="34">
+        <v>9752504</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="36">
+        <v>10</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38">
+        <f>E45/2</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="38">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="34">
+        <v>9752498</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="36">
+        <v>6</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38">
+        <f>E46/5</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="H46" s="38">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="26">
+        <v>4421584</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="13">
         <v>12</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="H45" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22">
-        <v>9752504</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="24">
-        <v>10</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26">
-        <f>E46/2</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="H46" s="26">
-        <f>E46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="22">
-        <v>9752498</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="24">
-        <v>6</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
-        <f>E47/5</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="H47" s="26">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>65</v>
-      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="11">
+        <f>D47/C47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="H47" s="11">
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="19">
-        <v>4421584</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="A48" s="26">
+        <v>4421577</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="13">
         <v>12</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="11">
         <f>D48/C48</f>
         <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0.18</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48:H50" si="7">G48*D48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="19">
-        <v>4421577</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="11">
-        <v>12</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9">
+      <c r="H48" s="11">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="19" customFormat="1">
+      <c r="A49" s="29">
+        <v>9985949</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="42">
+        <v>10</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44">
         <f>D49/C49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H49" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="G49" s="45">
+        <v>1</v>
+      </c>
+      <c r="H49" s="44">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="28">
-        <v>9985949</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="30">
-        <v>10</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="32">
-        <f>D50/C50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="4">
-        <f>SUM(H4:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4">
+        <f>SUM(H4:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I51" xr:uid="{C458D544-983A-4AB6-9A30-9152471CF24E}"/>
+  <autoFilter ref="A3:I3" xr:uid="{BADB81F5-25AA-4C50-8744-F2EDA5297853}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
+++ b/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино СЫР\OrderCheeseInForm\новый_бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ACBE3D-EFFE-433F-9ABF-8164D061A14C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3AB96-EC11-4461-A430-66D5A0C88591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Луганск" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$48</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="67">
   <si>
     <t>пример заполнения</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Комментарии</t>
   </si>
   <si>
-    <t>Средний вес короба 7( вес 1 бруса 3,5кг)</t>
-  </si>
-  <si>
     <t>Штучный сыр заполняется в этой колонке</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>Масло сливочное ПАПА МОЖЕТ 82.5%, фас. в фольгу, 180гр</t>
-  </si>
-  <si>
-    <t>Сыр Сливочный со вкусом топленого молока 45% тм Папа Может, брус (2 шт)</t>
   </si>
   <si>
     <t>Сыр ПАПА МОЖЕТ "Тильзитер" ж. 45% газ.среда, 400 гр (8 шт)</t>
@@ -830,11 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -866,17 +860,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -903,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>7</v>
@@ -917,7 +911,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -942,7 +936,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -967,7 +961,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -992,7 +986,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -1017,7 +1011,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -1042,7 +1036,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -1061,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -1069,7 +1063,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -1094,7 +1088,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -1119,7 +1113,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -1144,7 +1138,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -1169,7 +1163,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -1194,7 +1188,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -1219,7 +1213,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -1241,37 +1235,35 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>5522704</v>
+        <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>E17/7</f>
+        <f>D17/C17</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3.5</v>
+        <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
+        <f>G17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -1292,11 +1284,11 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
-        <v>1018967</v>
+      <c r="A19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -1308,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="11">
         <f>G19*D19</f>
@@ -1318,111 +1310,111 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>D20/C20</f>
+        <f>E20/15</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="11">
-        <f>G20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>E21/15</f>
+        <f>D21/C21</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="11">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f>G21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="11">
-        <f>D22/C22</f>
+        <f>E22/15</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="11">
-        <f>G22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+      <c r="A23" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f>E23/15</f>
+        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -1433,27 +1425,27 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1470,59 +1462,59 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="A26" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="18">
+        <f>D26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="13">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11">
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1">
-      <c r="A27" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="17">
-        <v>8</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="18">
-        <f>D27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -1547,13 +1539,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -1562,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
@@ -1572,7 +1564,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
@@ -1583,115 +1575,115 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f>E30/7.8</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/7.8</f>
+        <f>E31/16.5</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>E32/16.5</f>
+        <f t="shared" ref="F32:F37" si="2">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f>E32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="13">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" ref="F33:F38" si="2">D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f t="shared" si="2"/>
+        <f>D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
@@ -1701,10 +1693,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -1712,7 +1704,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
@@ -1726,7 +1718,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>32</v>
@@ -1751,7 +1743,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
@@ -1766,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
@@ -1776,10 +1768,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -1787,49 +1779,49 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F38:F43" si="4">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H38:H43" si="5">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
+      <c r="A39" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f t="shared" ref="F39:F44" si="4">D39/C39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" ref="H39:H44" si="5">D39*G39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -1851,10 +1843,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -1876,13 +1868,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1891,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="5"/>
@@ -1901,10 +1893,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -1925,11 +1917,11 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>57</v>
+      <c r="A44" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -1937,24 +1929,24 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="4"/>
+        <f>D44/C44</f>
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
+        <f>G44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -1974,26 +1966,26 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:9" s="20" customFormat="1">
+      <c r="A46" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13">
-        <v>12</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="11">
+      <c r="C46" s="17">
+        <v>10</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="18">
         <f>D46/C46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
         <f>G46*D46</f>
         <v>0</v>
       </c>
@@ -2001,81 +1993,56 @@
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>D47/C47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>1</v>
+        <f>E47/6</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.5</v>
       </c>
       <c r="H47" s="18">
-        <f>G47*D47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1">
-      <c r="A48" s="30">
-        <v>8786928</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="17">
-        <v>4</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="18">
-        <f>E48/6</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="18">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="4">
-        <f>SUM(H4:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="8">
-        <f>H49+Бердянск!H49+Донецк!H49+Луганск!H49</f>
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="11"/>
+      <c r="B48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="4">
+        <f>SUM(H4:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8">
+        <f>H48+Бердянск!H48+Донецк!H48+Луганск!H48</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I49" xr:uid="{1671298D-BDEC-4B30-BC77-F2DB201992D2}"/>
+  <autoFilter ref="A3:I48" xr:uid="{1671298D-BDEC-4B30-BC77-F2DB201992D2}"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2087,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0559C-B319-47D6-83AC-EF114ED65093}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2123,17 +2090,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2160,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>7</v>
@@ -2174,7 +2141,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -2199,7 +2166,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -2224,7 +2191,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -2249,7 +2216,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -2274,7 +2241,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -2299,7 +2266,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -2318,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -2326,7 +2293,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -2351,7 +2318,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -2376,7 +2343,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -2401,7 +2368,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -2426,7 +2393,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -2451,7 +2418,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -2476,7 +2443,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -2498,37 +2465,35 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>5522704</v>
+        <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>E17/7</f>
+        <f>D17/C17</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3.5</v>
+        <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
+        <f>G17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -2549,11 +2514,11 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
-        <v>1018967</v>
+      <c r="A19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -2565,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="11">
         <f>G19*D19</f>
@@ -2575,111 +2540,111 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>D20/C20</f>
+        <f>E20/15</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="11">
-        <f>G20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>E21/15</f>
+        <f>D21/C21</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="11">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f>G21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="11">
-        <f>D22/C22</f>
+        <f>E22/15</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="11">
-        <f>G22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+      <c r="A23" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f>E23/15</f>
+        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -2690,27 +2655,27 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2727,59 +2692,59 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="A26" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="18">
+        <f>D26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="13">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11">
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1">
-      <c r="A27" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="17">
-        <v>8</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="18">
-        <f>D27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -2804,13 +2769,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -2819,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
@@ -2829,7 +2794,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
@@ -2840,115 +2805,115 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f>E30/7.8</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/7.8</f>
+        <f>E31/16.5</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>E32/16.5</f>
+        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f>E32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="13">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f t="shared" si="2"/>
+        <f>D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
@@ -2958,10 +2923,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -2969,7 +2934,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
@@ -2983,7 +2948,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>32</v>
@@ -3008,7 +2973,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
@@ -3023,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
@@ -3033,10 +2998,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -3048,23 +3013,23 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
+      <c r="A39" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -3073,20 +3038,20 @@
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -3108,10 +3073,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -3133,13 +3098,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -3148,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="4"/>
@@ -3158,10 +3123,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -3182,11 +3147,11 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>57</v>
+      <c r="A44" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -3194,24 +3159,24 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="2"/>
+        <f>D44/C44</f>
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
+        <f>G44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -3231,26 +3196,26 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:9" s="20" customFormat="1">
+      <c r="A46" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13">
-        <v>12</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="11">
+      <c r="C46" s="17">
+        <v>10</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="18">
         <f>D46/C46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
         <f>G46*D46</f>
         <v>0</v>
       </c>
@@ -3258,85 +3223,60 @@
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>D47/C47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>1</v>
+        <f>E47/6</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.5</v>
       </c>
       <c r="H47" s="18">
-        <f>G47*D47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1">
-      <c r="A48" s="30">
-        <v>8786928</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="17">
-        <v>4</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="18">
-        <f>E48/6</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="18">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="4">
-        <f>SUM(H4:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11"/>
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="11"/>
+      <c r="B48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="4">
+        <f>SUM(H4:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{03C4AC5B-C380-4919-89E1-E07271E2DE4E}"/>
+  <autoFilter ref="A3:I48" xr:uid="{03C4AC5B-C380-4919-89E1-E07271E2DE4E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CC124A-5B18-4C7A-87BA-227BD38AE3BB}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3368,17 +3308,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -3405,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>7</v>
@@ -3419,7 +3359,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -3444,7 +3384,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -3469,7 +3409,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -3494,7 +3434,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -3519,7 +3459,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -3544,7 +3484,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -3563,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -3571,7 +3511,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -3596,7 +3536,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -3621,7 +3561,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -3646,7 +3586,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -3671,7 +3611,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -3696,7 +3636,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -3721,7 +3661,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -3743,37 +3683,35 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>5522704</v>
+        <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>E17/7</f>
+        <f>D17/C17</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3.5</v>
+        <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
+        <f>G17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -3794,11 +3732,11 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
-        <v>1018967</v>
+      <c r="A19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -3810,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="11">
         <f>G19*D19</f>
@@ -3820,111 +3758,111 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>D20/C20</f>
+        <f>E20/15</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="11">
-        <f>G20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>E21/15</f>
+        <f>D21/C21</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="11">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f>G21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="11">
-        <f>D22/C22</f>
+        <f>E22/15</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="11">
-        <f>G22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+      <c r="A23" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f>E23/15</f>
+        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -3935,27 +3873,27 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -3972,59 +3910,59 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="A26" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="18">
+        <f>D26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="13">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11">
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1">
-      <c r="A27" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="17">
-        <v>8</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="18">
-        <f>D27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -4049,13 +3987,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -4064,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
@@ -4074,7 +4012,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
@@ -4085,115 +4023,115 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f>E30/7.8</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/7.8</f>
+        <f>E31/16.5</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>E32/16.5</f>
+        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f>E32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="13">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f t="shared" si="2"/>
+        <f>D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
@@ -4203,10 +4141,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -4214,7 +4152,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
@@ -4228,7 +4166,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>32</v>
@@ -4253,7 +4191,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
@@ -4268,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
@@ -4278,10 +4216,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -4293,23 +4231,23 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
+      <c r="A39" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -4318,20 +4256,20 @@
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -4353,10 +4291,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -4378,13 +4316,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -4393,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="4"/>
@@ -4403,10 +4341,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -4427,11 +4365,11 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>57</v>
+      <c r="A44" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -4439,24 +4377,24 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="2"/>
+        <f>D44/C44</f>
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
+        <f>G44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -4476,26 +4414,26 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:9" s="20" customFormat="1">
+      <c r="A46" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13">
-        <v>12</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="11">
+      <c r="C46" s="17">
+        <v>10</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="18">
         <f>D46/C46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
         <f>G46*D46</f>
         <v>0</v>
       </c>
@@ -4503,85 +4441,60 @@
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>D47/C47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>1</v>
+        <f>E47/6</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.5</v>
       </c>
       <c r="H47" s="18">
-        <f>G47*D47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1">
-      <c r="A48" s="30">
-        <v>8786928</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="17">
-        <v>4</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="18">
-        <f>E48/6</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="18">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="4">
-        <f>SUM(H4:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11"/>
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="11"/>
+      <c r="B48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="4">
+        <f>SUM(H4:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{7DDB3801-D259-4850-A5DC-D5F7EE557C18}"/>
+  <autoFilter ref="A3:I48" xr:uid="{7DDB3801-D259-4850-A5DC-D5F7EE557C18}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30E7133-EEFA-4C68-8134-9595AB7601FD}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4613,17 +4526,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4650,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>7</v>
@@ -4664,7 +4577,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -4689,7 +4602,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -4714,7 +4627,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -4739,7 +4652,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -4764,7 +4677,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -4789,7 +4702,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -4808,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -4816,7 +4729,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -4841,7 +4754,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -4866,7 +4779,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -4891,7 +4804,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -4916,7 +4829,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -4941,7 +4854,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -4966,7 +4879,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -4988,37 +4901,35 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>5522704</v>
+        <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>E17/7</f>
+        <f>D17/C17</f>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>3.5</v>
+        <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
+        <f>G17*D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -5039,11 +4950,11 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3">
-        <v>1018967</v>
+      <c r="A19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -5055,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="11">
         <f>G19*D19</f>
@@ -5065,111 +4976,111 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>D20/C20</f>
+        <f>E20/15</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="11">
-        <f>G20*D20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>E21/15</f>
+        <f>D21/C21</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="11">
-        <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f>G21*D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="11">
-        <f>D22/C22</f>
+        <f>E22/15</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="11">
-        <f>G22*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+      <c r="A23" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f>E23/15</f>
+        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -5180,27 +5091,27 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -5217,59 +5128,59 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:9" s="20" customFormat="1">
+      <c r="A26" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="17">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="18">
+        <f>D26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="13">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11">
+      <c r="C27" s="13">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="G27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1">
-      <c r="A27" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="17">
-        <v>8</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="18">
-        <f>D27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -5294,13 +5205,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -5309,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
@@ -5319,7 +5230,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>27</v>
@@ -5330,115 +5241,115 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f>E30/7.8</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/7.8</f>
+        <f>E31/16.5</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" s="11">
         <f>E31</f>
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>E32/16.5</f>
+        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f>E32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="13">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" ref="F33:F44" si="2">D33/C33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:H38" si="3">G33*D33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C34" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f t="shared" si="2"/>
+        <f>D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
@@ -5448,10 +5359,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -5459,7 +5370,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
@@ -5473,7 +5384,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>32</v>
@@ -5498,7 +5409,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
@@ -5513,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
@@ -5523,10 +5434,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -5538,23 +5449,23 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
+      <c r="A39" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -5563,20 +5474,20 @@
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" ref="H39:H44" si="4">D39*G39</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -5598,10 +5509,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -5623,13 +5534,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -5638,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="4"/>
@@ -5648,10 +5559,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -5672,11 +5583,11 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>57</v>
+      <c r="A44" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -5684,24 +5595,24 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="2"/>
+        <f>D44/C44</f>
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
+        <f>G44*D44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -5721,26 +5632,26 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B46" s="28" t="s">
+    <row r="46" spans="1:9" s="20" customFormat="1">
+      <c r="A46" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="13">
-        <v>12</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="11">
+      <c r="C46" s="17">
+        <v>10</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="18">
         <f>D46/C46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="11">
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
         <f>G46*D46</f>
         <v>0</v>
       </c>
@@ -5748,74 +5659,49 @@
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>D47/C47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <v>1</v>
+        <f>E47/6</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1.5</v>
       </c>
       <c r="H47" s="18">
-        <f>G47*D47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" spans="1:9" s="20" customFormat="1">
-      <c r="A48" s="30">
-        <v>8786928</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="17">
-        <v>4</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="18">
-        <f>E48/6</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="H48" s="18">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="4">
-        <f>SUM(H4:H48)</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11"/>
+        <f>E47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="11"/>
+      <c r="B48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="4">
+        <f>SUM(H4:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{3F6430DA-9BD1-4B16-AFCF-37A9F701BE8F}"/>
+  <autoFilter ref="A3:I48" xr:uid="{3F6430DA-9BD1-4B16-AFCF-37A9F701BE8F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
+++ b/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино СЫР\OrderCheeseInForm\новый_бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\16,12,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3AB96-EC11-4461-A430-66D5A0C88591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE093207-D7B7-4BB5-B92D-C1A6BC1F97E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Луганск" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$53</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="67">
-  <si>
-    <t>пример заполнения</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="71">
   <si>
     <t>Артикул</t>
   </si>
@@ -238,12 +235,27 @@
   </si>
   <si>
     <t>Средний вес короба 6 ( вес 1 брус 1,5кг)</t>
+  </si>
+  <si>
+    <t>Майонез провансаль классический с массовой долей жира 67% ТМ «ПАПА МОЖЕТ» 372г дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Майонез провансаль классический с массовой долей жира 67% ТМ "ПАПА МОЖЕТ" 744 г дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Майонез провансаль классический оливковый с массовой долей жира 67%ТМ «ПАПА МОЖЕТ» 372г дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Майонез провансаль классический оливковый с массовой долей жира 67%ТМ «ПАПА МОЖЕТ» 744г дой-пак с дозатором</t>
+  </si>
+  <si>
+    <t>Майонезный соус провансаль деликатесный с массовой долей жира 25%ТМ "Коровино" 824,5 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -823,12 +835,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -849,9 +861,7 @@
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -860,17 +870,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -879,31 +889,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5">
@@ -911,7 +921,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -936,7 +946,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -961,7 +971,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -986,7 +996,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -1011,7 +1021,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -1036,7 +1046,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -1055,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -1063,7 +1073,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -1088,7 +1098,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -1113,7 +1123,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -1138,7 +1148,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -1146,14 +1156,14 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f>D13/C13</f>
+        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0.2</v>
       </c>
       <c r="H13" s="11">
-        <f>G13*D13</f>
+        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
@@ -1163,7 +1173,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -1171,14 +1181,14 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="11">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
       <c r="H14" s="11">
-        <f>G14*D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
@@ -1188,7 +1198,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -1196,14 +1206,14 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="11">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
       <c r="H15" s="11">
-        <f>G15*D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
@@ -1213,7 +1223,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -1221,14 +1231,14 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="11">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
       <c r="H16" s="11">
-        <f>G16*D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
@@ -1238,7 +1248,7 @@
         <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -1246,14 +1256,14 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>G17*D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
@@ -1263,7 +1273,7 @@
         <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -1271,24 +1281,24 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="11">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
       <c r="H18" s="11">
-        <f>G18*D18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -1296,24 +1306,24 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.2</v>
       </c>
       <c r="H19" s="11">
-        <f>G19*D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13">
         <v>4</v>
@@ -1332,15 +1342,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -1362,10 +1372,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
@@ -1384,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1392,7 +1402,7 @@
         <v>8444194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -1400,14 +1410,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
+        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
@@ -1417,7 +1427,7 @@
         <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>6</v>
@@ -1425,14 +1435,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -1442,7 +1452,7 @@
         <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -1450,14 +1460,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -1467,7 +1477,7 @@
         <v>8444170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>8</v>
@@ -1475,14 +1485,14 @@
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="18">
-        <f>D26/C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="19">
         <v>0.1</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="18"/>
@@ -1492,7 +1502,7 @@
         <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -1500,14 +1510,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -1517,7 +1527,7 @@
         <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13">
         <v>16</v>
@@ -1525,14 +1535,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -1542,7 +1552,7 @@
         <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -1550,14 +1560,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.18</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -1567,7 +1577,7 @@
         <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="13">
         <v>6</v>
@@ -1586,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1594,7 +1604,7 @@
         <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13">
         <v>5</v>
@@ -1613,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1621,7 +1631,7 @@
         <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="13">
         <v>8</v>
@@ -1629,14 +1639,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F37" si="2">D32/C32</f>
+        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -1646,7 +1656,7 @@
         <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="13">
         <v>28</v>
@@ -1654,14 +1664,14 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -1671,7 +1681,7 @@
         <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -1679,14 +1689,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -1696,7 +1706,7 @@
         <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -1704,14 +1714,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.18</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -1721,7 +1731,7 @@
         <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -1729,14 +1739,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -1746,7 +1756,7 @@
         <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -1754,14 +1764,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -1771,7 +1781,7 @@
         <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -1779,14 +1789,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f t="shared" ref="F38:F43" si="4">D38/C38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="5">D38*G38</f>
+        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -1796,7 +1806,7 @@
         <v>8444903</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13">
         <v>8</v>
@@ -1811,7 +1821,7 @@
         <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -1821,7 +1831,7 @@
         <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -1836,7 +1846,7 @@
         <v>0.1</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -1846,7 +1856,7 @@
         <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -1861,7 +1871,7 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -1871,7 +1881,7 @@
         <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -1886,7 +1896,7 @@
         <v>0.125</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -1896,7 +1906,7 @@
         <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -1911,7 +1921,7 @@
         <v>0.125</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -1921,7 +1931,7 @@
         <v>4421584</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -1929,7 +1939,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -1946,7 +1956,7 @@
         <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -1954,7 +1964,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -1971,7 +1981,7 @@
         <v>9985949</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
@@ -1979,7 +1989,7 @@
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f>D46/C46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G46" s="33">
@@ -1996,7 +2006,7 @@
         <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="17">
         <v>4</v>
@@ -2015,34 +2025,159 @@
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="20" customFormat="1">
+      <c r="A48" s="30">
+        <v>6948270</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="17">
         <v>12</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="4">
-        <f>SUM(H4:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="8">
-        <f>H48+Бердянск!H48+Донецк!H48+Луганск!H48</f>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="18">
+        <f>D48/C48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H48" s="18">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1">
+      <c r="A49" s="30">
+        <v>6948287</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="17">
+        <v>12</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="18">
+        <f>D49/C49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H49" s="18">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1">
+      <c r="A50" s="30">
+        <v>6948256</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17">
+        <v>12</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="18">
+        <f>D50/C50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H50" s="18">
+        <f>G50*D50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1">
+      <c r="A51" s="30">
+        <v>6948263</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17">
+        <v>12</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="18">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H51" s="18">
+        <f>G51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1">
+      <c r="A52" s="30">
+        <v>6948249</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17">
+        <v>12</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="18">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H52" s="18">
+        <f>G52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4">
+        <f>SUM(H4:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="8">
+        <f>H53+Бердянск!H53+Донецк!H53+Луганск!H53</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I48" xr:uid="{1671298D-BDEC-4B30-BC77-F2DB201992D2}"/>
+  <autoFilter ref="A3:I53"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2053,12 +2188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0559C-B319-47D6-83AC-EF114ED65093}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2079,9 +2214,7 @@
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -2090,17 +2223,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2109,31 +2242,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5">
@@ -2141,7 +2274,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -2166,7 +2299,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -2191,7 +2324,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -2216,7 +2349,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -2241,7 +2374,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -2266,7 +2399,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -2285,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -2293,7 +2426,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -2318,7 +2451,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -2343,7 +2476,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -2368,7 +2501,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -2376,14 +2509,14 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f>D13/C13</f>
+        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0.2</v>
       </c>
       <c r="H13" s="11">
-        <f>G13*D13</f>
+        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
@@ -2393,7 +2526,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -2401,14 +2534,14 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="11">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
       <c r="H14" s="11">
-        <f>G14*D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
@@ -2418,7 +2551,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -2426,14 +2559,14 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="11">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
       <c r="H15" s="11">
-        <f>G15*D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
@@ -2443,7 +2576,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -2451,14 +2584,14 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="11">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
       <c r="H16" s="11">
-        <f>G16*D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
@@ -2468,7 +2601,7 @@
         <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -2476,14 +2609,14 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>G17*D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
@@ -2493,7 +2626,7 @@
         <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -2501,24 +2634,24 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="11">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
       <c r="H18" s="11">
-        <f>G18*D18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -2526,24 +2659,24 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.2</v>
       </c>
       <c r="H19" s="11">
-        <f>G19*D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13">
         <v>4</v>
@@ -2562,15 +2695,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -2592,10 +2725,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
@@ -2614,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2622,7 +2755,7 @@
         <v>8444194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -2630,14 +2763,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
+        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
@@ -2647,7 +2780,7 @@
         <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>6</v>
@@ -2655,14 +2788,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -2672,7 +2805,7 @@
         <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -2680,14 +2813,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -2697,7 +2830,7 @@
         <v>8444170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>8</v>
@@ -2705,14 +2838,14 @@
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="18">
-        <f>D26/C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="19">
         <v>0.1</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="18"/>
@@ -2722,7 +2855,7 @@
         <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -2730,14 +2863,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -2747,7 +2880,7 @@
         <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13">
         <v>16</v>
@@ -2755,14 +2888,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -2772,7 +2905,7 @@
         <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -2780,14 +2913,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.18</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -2797,7 +2930,7 @@
         <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="13">
         <v>6</v>
@@ -2816,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2824,7 +2957,7 @@
         <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13">
         <v>5</v>
@@ -2843,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2851,7 +2984,7 @@
         <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="13">
         <v>8</v>
@@ -2859,14 +2992,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
+        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -2876,7 +3009,7 @@
         <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="13">
         <v>28</v>
@@ -2884,14 +3017,14 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -2901,7 +3034,7 @@
         <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -2909,14 +3042,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2926,7 +3059,7 @@
         <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -2934,14 +3067,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.18</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -2951,7 +3084,7 @@
         <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -2959,14 +3092,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -2976,7 +3109,7 @@
         <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -2984,14 +3117,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -3001,7 +3134,7 @@
         <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -3009,14 +3142,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
+        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -3026,7 +3159,7 @@
         <v>8444903</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13">
         <v>8</v>
@@ -3034,14 +3167,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -3051,7 +3184,7 @@
         <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -3059,14 +3192,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.1</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -3076,7 +3209,7 @@
         <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -3084,14 +3217,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -3101,7 +3234,7 @@
         <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -3109,14 +3242,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.125</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -3126,7 +3259,7 @@
         <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -3134,14 +3267,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.125</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -3151,7 +3284,7 @@
         <v>4421584</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -3159,7 +3292,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -3176,7 +3309,7 @@
         <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -3184,7 +3317,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -3201,7 +3334,7 @@
         <v>9985949</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
@@ -3209,7 +3342,7 @@
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f>D46/C46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G46" s="33">
@@ -3226,7 +3359,7 @@
         <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="17">
         <v>4</v>
@@ -3245,38 +3378,163 @@
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="20" customFormat="1">
+      <c r="A48" s="30">
+        <v>6948270</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="17">
         <v>12</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="4">
-        <f>SUM(H4:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="18">
+        <f>D48/C48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H48" s="18">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1">
+      <c r="A49" s="30">
+        <v>6948287</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="17">
+        <v>12</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="18">
+        <f>D49/C49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H49" s="18">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1">
+      <c r="A50" s="30">
+        <v>6948256</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17">
+        <v>12</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="18">
+        <f>D50/C50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H50" s="18">
+        <f>G50*D50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1">
+      <c r="A51" s="30">
+        <v>6948263</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17">
+        <v>12</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="18">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H51" s="18">
+        <f>G51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1">
+      <c r="A52" s="30">
+        <v>6948249</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17">
+        <v>12</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="18">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H52" s="18">
+        <f>G52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4">
+        <f>SUM(H4:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I48" xr:uid="{03C4AC5B-C380-4919-89E1-E07271E2DE4E}"/>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CC124A-5B18-4C7A-87BA-227BD38AE3BB}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3297,9 +3555,7 @@
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -3308,17 +3564,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -3327,31 +3583,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5">
@@ -3359,7 +3615,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -3384,7 +3640,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -3409,7 +3665,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -3434,7 +3690,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -3459,7 +3715,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -3484,7 +3740,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -3503,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -3511,7 +3767,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -3536,7 +3792,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -3561,7 +3817,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -3586,7 +3842,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -3594,14 +3850,14 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f>D13/C13</f>
+        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0.2</v>
       </c>
       <c r="H13" s="11">
-        <f>G13*D13</f>
+        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
@@ -3611,7 +3867,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -3619,14 +3875,14 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="11">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
       <c r="H14" s="11">
-        <f>G14*D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
@@ -3636,7 +3892,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -3644,14 +3900,14 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="11">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
       <c r="H15" s="11">
-        <f>G15*D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
@@ -3661,7 +3917,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -3669,14 +3925,14 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="11">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
       <c r="H16" s="11">
-        <f>G16*D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
@@ -3686,7 +3942,7 @@
         <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -3694,14 +3950,14 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>G17*D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
@@ -3711,7 +3967,7 @@
         <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -3719,24 +3975,24 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="11">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
       <c r="H18" s="11">
-        <f>G18*D18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -3744,24 +4000,24 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.2</v>
       </c>
       <c r="H19" s="11">
-        <f>G19*D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13">
         <v>4</v>
@@ -3780,15 +4036,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -3810,10 +4066,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
@@ -3832,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3840,7 +4096,7 @@
         <v>8444194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -3848,14 +4104,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
+        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
@@ -3865,7 +4121,7 @@
         <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>6</v>
@@ -3873,14 +4129,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -3890,7 +4146,7 @@
         <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -3898,14 +4154,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -3915,7 +4171,7 @@
         <v>8444170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>8</v>
@@ -3923,14 +4179,14 @@
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="18">
-        <f>D26/C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="19">
         <v>0.1</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="18"/>
@@ -3940,7 +4196,7 @@
         <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -3948,14 +4204,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -3965,7 +4221,7 @@
         <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13">
         <v>16</v>
@@ -3973,14 +4229,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -3990,7 +4246,7 @@
         <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -3998,14 +4254,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.18</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -4015,7 +4271,7 @@
         <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="13">
         <v>6</v>
@@ -4034,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4042,7 +4298,7 @@
         <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13">
         <v>5</v>
@@ -4061,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4069,7 +4325,7 @@
         <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="13">
         <v>8</v>
@@ -4077,14 +4333,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
+        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -4094,7 +4350,7 @@
         <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="13">
         <v>28</v>
@@ -4102,14 +4358,14 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -4119,7 +4375,7 @@
         <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -4127,14 +4383,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -4144,7 +4400,7 @@
         <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -4152,14 +4408,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.18</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -4169,7 +4425,7 @@
         <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -4177,14 +4433,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -4194,7 +4450,7 @@
         <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -4202,14 +4458,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -4219,7 +4475,7 @@
         <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -4227,14 +4483,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
+        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -4244,7 +4500,7 @@
         <v>8444903</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13">
         <v>8</v>
@@ -4252,14 +4508,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -4269,7 +4525,7 @@
         <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -4277,14 +4533,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.1</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -4294,7 +4550,7 @@
         <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -4302,14 +4558,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -4319,7 +4575,7 @@
         <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -4327,14 +4583,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.125</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -4344,7 +4600,7 @@
         <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -4352,14 +4608,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.125</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -4369,7 +4625,7 @@
         <v>4421584</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -4377,7 +4633,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -4394,7 +4650,7 @@
         <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -4402,7 +4658,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -4419,7 +4675,7 @@
         <v>9985949</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
@@ -4427,7 +4683,7 @@
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f>D46/C46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G46" s="33">
@@ -4444,7 +4700,7 @@
         <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="17">
         <v>4</v>
@@ -4463,38 +4719,163 @@
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="20" customFormat="1">
+      <c r="A48" s="30">
+        <v>6948270</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="17">
         <v>12</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="4">
-        <f>SUM(H4:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="18">
+        <f>D48/C48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H48" s="18">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1">
+      <c r="A49" s="30">
+        <v>6948287</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="17">
+        <v>12</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="18">
+        <f>D49/C49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H49" s="18">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1">
+      <c r="A50" s="30">
+        <v>6948256</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17">
+        <v>12</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="18">
+        <f>D50/C50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H50" s="18">
+        <f>G50*D50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1">
+      <c r="A51" s="30">
+        <v>6948263</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17">
+        <v>12</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="18">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H51" s="18">
+        <f>G51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1">
+      <c r="A52" s="30">
+        <v>6948249</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17">
+        <v>12</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="18">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H52" s="18">
+        <f>G52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4">
+        <f>SUM(H4:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I48" xr:uid="{7DDB3801-D259-4850-A5DC-D5F7EE557C18}"/>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30E7133-EEFA-4C68-8134-9595AB7601FD}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4515,9 +4896,7 @@
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -4526,17 +4905,17 @@
     </row>
     <row r="2" spans="1:9" ht="38.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4545,31 +4924,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25.5">
@@ -4577,7 +4956,7 @@
         <v>5038435</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="13">
         <v>10</v>
@@ -4602,7 +4981,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -4627,7 +5006,7 @@
         <v>5038459</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13">
         <v>10</v>
@@ -4652,7 +5031,7 @@
         <v>8785235</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13">
         <v>5</v>
@@ -4677,7 +5056,7 @@
         <v>5038411</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -4702,7 +5081,7 @@
         <v>8785242</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13">
         <v>5</v>
@@ -4721,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5">
@@ -4729,7 +5108,7 @@
         <v>5038398</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -4754,7 +5133,7 @@
         <v>5039609</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13">
         <v>8</v>
@@ -4779,7 +5158,7 @@
         <v>8785259</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <v>5</v>
@@ -4804,7 +5183,7 @@
         <v>5038855</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13">
         <v>10</v>
@@ -4812,14 +5191,14 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f>D13/C13</f>
+        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0.2</v>
       </c>
       <c r="H13" s="11">
-        <f>G13*D13</f>
+        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
@@ -4829,7 +5208,7 @@
         <v>5039647</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="13">
         <v>8</v>
@@ -4837,14 +5216,14 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="11">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.4</v>
       </c>
       <c r="H14" s="11">
-        <f>G14*D14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
@@ -4854,7 +5233,7 @@
         <v>5038831</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <v>10</v>
@@ -4862,14 +5241,14 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="11">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.18</v>
       </c>
       <c r="H15" s="11">
-        <f>G15*D15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
@@ -4879,7 +5258,7 @@
         <v>5039623</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15">
         <v>8</v>
@@ -4887,14 +5266,14 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="11">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.4</v>
       </c>
       <c r="H16" s="11">
-        <f>G16*D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
@@ -4904,7 +5283,7 @@
         <v>1018950</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -4912,14 +5291,14 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="11">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0.18</v>
       </c>
       <c r="H17" s="11">
-        <f>G17*D17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
@@ -4929,7 +5308,7 @@
         <v>1018967</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -4937,24 +5316,24 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="11">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.18</v>
       </c>
       <c r="H18" s="11">
-        <f>G18*D18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
         <v>10</v>
@@ -4962,24 +5341,24 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.2</v>
       </c>
       <c r="H19" s="11">
-        <f>G19*D19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13">
         <v>4</v>
@@ -4998,15 +5377,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="13">
         <v>10</v>
@@ -5028,10 +5407,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
@@ -5050,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5058,7 +5437,7 @@
         <v>8444194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -5066,14 +5445,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="0">D23/C23</f>
+        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="1">G23*D23</f>
+        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
@@ -5083,7 +5462,7 @@
         <v>8444187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>6</v>
@@ -5091,14 +5470,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -5108,7 +5487,7 @@
         <v>8444163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -5116,14 +5495,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -5133,7 +5512,7 @@
         <v>8444170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="17">
         <v>8</v>
@@ -5141,14 +5520,14 @@
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="18">
-        <f>D26/C26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="19">
         <v>0.1</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="18"/>
@@ -5158,7 +5537,7 @@
         <v>9988377</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -5166,14 +5545,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -5183,7 +5562,7 @@
         <v>9988391</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="13">
         <v>16</v>
@@ -5191,14 +5570,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -5208,7 +5587,7 @@
         <v>5034819</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -5216,14 +5595,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.18</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -5233,7 +5612,7 @@
         <v>2981244</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="13">
         <v>6</v>
@@ -5252,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5260,7 +5639,7 @@
         <v>8785198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13">
         <v>5</v>
@@ -5279,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5287,7 +5666,7 @@
         <v>9988452</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="13">
         <v>8</v>
@@ -5295,14 +5674,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F43" si="2">D32/C32</f>
+        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="3">G32*D32</f>
+        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -5312,7 +5691,7 @@
         <v>9988476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="13">
         <v>28</v>
@@ -5320,14 +5699,14 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.4</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -5337,7 +5716,7 @@
         <v>9988681</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -5345,14 +5724,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -5362,7 +5741,7 @@
         <v>9988438</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -5370,14 +5749,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.18</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -5387,7 +5766,7 @@
         <v>9988445</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -5395,14 +5774,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -5412,7 +5791,7 @@
         <v>9988421</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -5420,14 +5799,14 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -5437,7 +5816,7 @@
         <v>9988674</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13">
         <v>16</v>
@@ -5445,14 +5824,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="4">D38*G38</f>
+        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -5462,7 +5841,7 @@
         <v>8444903</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="13">
         <v>8</v>
@@ -5470,14 +5849,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.1</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -5487,7 +5866,7 @@
         <v>8444910</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="13">
         <v>8</v>
@@ -5495,14 +5874,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.1</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -5512,7 +5891,7 @@
         <v>8444927</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="13">
         <v>8</v>
@@ -5520,14 +5899,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -5537,7 +5916,7 @@
         <v>6600454</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -5545,14 +5924,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.125</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -5562,7 +5941,7 @@
         <v>6600447</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -5570,14 +5949,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.125</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -5587,7 +5966,7 @@
         <v>4421584</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -5595,7 +5974,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -5612,7 +5991,7 @@
         <v>4421577</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13">
         <v>12</v>
@@ -5620,7 +5999,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -5637,7 +6016,7 @@
         <v>9985949</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="17">
         <v>10</v>
@@ -5645,7 +6024,7 @@
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f>D46/C46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G46" s="33">
@@ -5662,7 +6041,7 @@
         <v>8786928</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="17">
         <v>4</v>
@@ -5681,27 +6060,152 @@
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="20" customFormat="1">
+      <c r="A48" s="30">
+        <v>6948270</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="11"/>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="17">
         <v>12</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="4">
-        <f>SUM(H4:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="18">
+        <f>D48/C48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H48" s="18">
+        <f>G48*D48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1">
+      <c r="A49" s="30">
+        <v>6948287</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="17">
+        <v>12</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="18">
+        <f>D49/C49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H49" s="18">
+        <f>G49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1">
+      <c r="A50" s="30">
+        <v>6948256</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="17">
+        <v>12</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="18">
+        <f>D50/C50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.372</v>
+      </c>
+      <c r="H50" s="18">
+        <f>G50*D50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1">
+      <c r="A51" s="30">
+        <v>6948263</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="17">
+        <v>12</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="18">
+        <f>D51/C51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H51" s="18">
+        <f>G51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1">
+      <c r="A52" s="30">
+        <v>6948249</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="17">
+        <v>12</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="18">
+        <f>D52/C52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H52" s="18">
+        <f>G52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4">
+        <f>SUM(H4:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I48" xr:uid="{3F6430DA-9BD1-4B16-AFCF-37A9F701BE8F}"/>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
+++ b/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\16,12,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино СЫР\OrderCheeseInForm\новый_бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE093207-D7B7-4BB5-B92D-C1A6BC1F97E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF07D1-6C60-45EF-BD6D-545EEC2EFE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -835,12 +835,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2177,7 +2177,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I53"/>
+  <autoFilter ref="A3:I53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2188,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,13 +3523,13 @@
       <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4864,13 +4864,13 @@
       <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6205,7 +6205,7 @@
       <c r="I53" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
+++ b/в бланки заводов/Останкино СЫР/OrderCheeseInForm/новый_бланк/Бланк заказов сыр  дистр.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино СЫР\OrderCheeseInForm\новый_бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF07D1-6C60-45EF-BD6D-545EEC2EFE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E24F20-E350-410A-818D-C3D3E9D1B3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="Луганск" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$3:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$3:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="70">
   <si>
     <t>Артикул</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Сыр полутвердый "Гауда", с массовой долей жира в пересчете на сухое вещество 45%, брус из блока 1/5, пленка желтая, короб складной ТМ Папа может</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сыр полутвердый "Голландский" с массовой долей жира в пересчете на сухое </t>
   </si>
   <si>
     <t>Сыр полутвердый "Российский" 3,2 кг, 50%, "Папа Может" ЮГ</t>
@@ -836,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -946,7 +943,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -991,92 +988,92 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
-        <v>8785235</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+    <row r="7" spans="1:9" ht="25.5">
+      <c r="A7" s="1">
+        <v>5038411</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f>E7/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.5</v>
+        <f>D7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.18</v>
       </c>
       <c r="H7" s="11">
-        <f>E7</f>
+        <f>G7*D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
-      <c r="A8" s="1">
-        <v>5038411</v>
+      <c r="A8" s="3">
+        <v>8785242</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="11">
-        <f>D8/C8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.18</v>
+        <f>E8/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.5</v>
       </c>
       <c r="H8" s="11">
-        <f>G8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="3">
-        <v>8785242</v>
+      <c r="A9" s="1">
+        <v>5038398</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f>E9/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.5</v>
+        <f>D9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.18</v>
       </c>
       <c r="H9" s="11">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
+        <f>G9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5038398</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>5039609</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="11">
         <f>G10*D10</f>
@@ -1093,90 +1090,90 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5039609</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
+    <row r="11" spans="1:9" ht="25.5">
+      <c r="A11" s="3">
+        <v>8785259</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="11">
-        <f>D11/C11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.4</v>
+        <f>E11/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.5</v>
       </c>
       <c r="H11" s="11">
-        <f>G11*D11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
-        <v>8785259</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>53</v>
+        <v>5038855</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="11">
-        <f>E12/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.5</v>
+        <f t="shared" ref="F12:F18" si="0">D12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.2</v>
       </c>
       <c r="H12" s="11">
-        <f>E12</f>
+        <f t="shared" ref="H12:H18" si="1">G12*D12</f>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>5038855</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>41</v>
+        <v>5039647</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="3">
-        <v>5039647</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13">
-        <v>8</v>
+        <v>5038831</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
@@ -1193,15 +1190,15 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>5038831</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>5039623</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
@@ -1220,13 +1217,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>5039623</v>
+        <v>1018950</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1235,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
@@ -1245,10 +1242,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -1269,11 +1266,11 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3">
-        <v>1018967</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -1285,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
@@ -1298,111 +1295,111 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f>E19/15</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>E20/15</f>
+        <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="11">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>D21/C21</f>
+        <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="11">
-        <f>G21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
+      <c r="A22" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11">
-        <f>E22/15</f>
+        <f t="shared" ref="F22:F28" si="2">D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="11">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" ref="H22:H28" si="3">G22*D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -1410,27 +1407,27 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1447,62 +1444,62 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13">
+    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="A25" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="19">
         <v>0.1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1">
-      <c r="A26" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="17">
-        <v>8</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="18">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="G26" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -1539,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="3"/>
@@ -1549,10 +1546,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -1560,106 +1557,106 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="2"/>
+        <f>E29/7.8</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>E30/7.8</f>
+        <f>E30/16.5</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" s="11">
         <f>E30</f>
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/16.5</f>
+        <f t="shared" ref="F31:F45" si="4">D31/C31</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="11">
-        <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="H31:H36" si="5">G31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
         <v>28</v>
-      </c>
-      <c r="C32" s="13">
-        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -1668,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="5"/>
@@ -1678,10 +1675,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -1703,10 +1700,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -1728,10 +1725,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="5"/>
@@ -1753,10 +1750,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -1768,23 +1765,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H37:H42" si="6">D37*G37</f>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
+      <c r="A38" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -1793,17 +1790,17 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>50</v>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>51</v>
@@ -1853,13 +1850,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="6"/>
@@ -1878,10 +1875,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -1902,11 +1899,11 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>54</v>
+      <c r="A43" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -1918,20 +1915,20 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
+        <f>G43*D43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -1951,26 +1948,26 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="13">
-        <v>12</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11">
+    <row r="45" spans="1:9" s="20" customFormat="1">
+      <c r="A45" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="17">
+        <v>10</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
         <f>G45*D45</f>
         <v>0</v>
       </c>
@@ -1978,59 +1975,59 @@
     </row>
     <row r="46" spans="1:9" s="20" customFormat="1">
       <c r="A46" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
+        <f>E46/6</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1.5</v>
       </c>
       <c r="H46" s="18">
-        <f>G46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18"/>
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>8786928</v>
+        <v>6948270</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>E47/6</f>
+        <f>D47/C47</f>
         <v>0</v>
       </c>
       <c r="G47" s="19">
-        <v>1.5</v>
+        <v>0.372</v>
       </c>
       <c r="H47" s="18">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>65</v>
-      </c>
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1">
       <c r="A48" s="30">
-        <v>6948270</v>
+        <v>6948287</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>66</v>
@@ -2045,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H48" s="18">
         <f>G48*D48</f>
@@ -2055,7 +2052,7 @@
     </row>
     <row r="49" spans="1:9" s="20" customFormat="1">
       <c r="A49" s="30">
-        <v>6948287</v>
+        <v>6948256</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>67</v>
@@ -2070,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="H49" s="18">
         <f>G49*D49</f>
@@ -2080,7 +2077,7 @@
     </row>
     <row r="50" spans="1:9" s="20" customFormat="1">
       <c r="A50" s="30">
-        <v>6948256</v>
+        <v>6948263</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>68</v>
@@ -2095,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H50" s="18">
         <f>G50*D50</f>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1">
       <c r="A51" s="30">
-        <v>6948263</v>
+        <v>6948249</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>69</v>
@@ -2120,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H51" s="18">
         <f>G51*D51</f>
@@ -2128,56 +2125,31 @@
       </c>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" s="20" customFormat="1">
-      <c r="A52" s="30">
-        <v>6948249</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="17">
-        <v>12</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="18">
-        <f>D52/C52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H52" s="18">
-        <f>G52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="25" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="4">
-        <f>SUM(H4:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="8">
-        <f>H53+Бердянск!H53+Донецк!H53+Луганск!H53</f>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4">
+        <f>SUM(H4:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8">
+        <f>H52+Бердянск!H52+Донецк!H52+Луганск!H52</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A3:I53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2189,11 +2161,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2299,7 +2271,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -2344,92 +2316,92 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
-        <v>8785235</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+    <row r="7" spans="1:9" ht="25.5">
+      <c r="A7" s="1">
+        <v>5038411</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f>E7/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.5</v>
+        <f>D7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.18</v>
       </c>
       <c r="H7" s="11">
-        <f>E7</f>
+        <f>G7*D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
-      <c r="A8" s="1">
-        <v>5038411</v>
+      <c r="A8" s="3">
+        <v>8785242</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="11">
-        <f>D8/C8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.18</v>
+        <f>E8/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.5</v>
       </c>
       <c r="H8" s="11">
-        <f>G8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="3">
-        <v>8785242</v>
+      <c r="A9" s="1">
+        <v>5038398</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f>E9/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.5</v>
+        <f>D9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.18</v>
       </c>
       <c r="H9" s="11">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
+        <f>G9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5038398</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>5039609</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2438,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="11">
         <f>G10*D10</f>
@@ -2446,90 +2418,90 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5039609</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
+    <row r="11" spans="1:9" ht="25.5">
+      <c r="A11" s="3">
+        <v>8785259</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="11">
-        <f>D11/C11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.4</v>
+        <f>E11/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.5</v>
       </c>
       <c r="H11" s="11">
-        <f>G11*D11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
-        <v>8785259</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>53</v>
+        <v>5038855</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="11">
-        <f>E12/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.5</v>
+        <f t="shared" ref="F12:F18" si="0">D12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.2</v>
       </c>
       <c r="H12" s="11">
-        <f>E12</f>
+        <f t="shared" ref="H12:H18" si="1">G12*D12</f>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>5038855</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>41</v>
+        <v>5039647</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="3">
-        <v>5039647</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13">
-        <v>8</v>
+        <v>5038831</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2538,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
@@ -2546,15 +2518,15 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>5038831</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>5039623</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2563,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
@@ -2573,13 +2545,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>5039623</v>
+        <v>1018950</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2588,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
@@ -2598,10 +2570,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -2622,11 +2594,11 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3">
-        <v>1018967</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -2638,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
@@ -2651,111 +2623,111 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f>E19/15</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>E20/15</f>
+        <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="11">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>D21/C21</f>
+        <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="11">
-        <f>G21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
+      <c r="A22" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11">
-        <f>E22/15</f>
+        <f t="shared" ref="F22:F28" si="2">D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="11">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" ref="H22:H28" si="3">G22*D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -2763,27 +2735,27 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2800,62 +2772,62 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13">
+    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="A25" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="19">
         <v>0.1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1">
-      <c r="A26" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="17">
-        <v>8</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="18">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="G26" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -2877,13 +2849,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2892,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="3"/>
@@ -2902,10 +2874,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -2913,106 +2885,106 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="2"/>
+        <f>E29/7.8</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>E30/7.8</f>
+        <f>E30/16.5</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" s="11">
         <f>E30</f>
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/16.5</f>
+        <f t="shared" ref="F31:F45" si="4">D31/C31</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="11">
-        <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="H31:H36" si="5">G31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
         <v>28</v>
-      </c>
-      <c r="C32" s="13">
-        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -3021,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="5"/>
@@ -3031,10 +3003,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -3056,10 +3028,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -3081,10 +3053,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -3096,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="5"/>
@@ -3106,10 +3078,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -3121,23 +3093,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H37:H42" si="6">D37*G37</f>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
+      <c r="A38" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -3146,17 +3118,17 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>50</v>
@@ -3181,7 +3153,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>51</v>
@@ -3206,13 +3178,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -3221,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="6"/>
@@ -3231,10 +3203,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -3255,11 +3227,11 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>54</v>
+      <c r="A43" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -3271,20 +3243,20 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
+        <f>G43*D43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -3304,26 +3276,26 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="13">
-        <v>12</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11">
+    <row r="45" spans="1:9" s="20" customFormat="1">
+      <c r="A45" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="17">
+        <v>10</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
         <f>G45*D45</f>
         <v>0</v>
       </c>
@@ -3331,59 +3303,59 @@
     </row>
     <row r="46" spans="1:9" s="20" customFormat="1">
       <c r="A46" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
+        <f>E46/6</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1.5</v>
       </c>
       <c r="H46" s="18">
-        <f>G46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18"/>
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>8786928</v>
+        <v>6948270</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>E47/6</f>
+        <f>D47/C47</f>
         <v>0</v>
       </c>
       <c r="G47" s="19">
-        <v>1.5</v>
+        <v>0.372</v>
       </c>
       <c r="H47" s="18">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>65</v>
-      </c>
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1">
       <c r="A48" s="30">
-        <v>6948270</v>
+        <v>6948287</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>66</v>
@@ -3398,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H48" s="18">
         <f>G48*D48</f>
@@ -3408,7 +3380,7 @@
     </row>
     <row r="49" spans="1:9" s="20" customFormat="1">
       <c r="A49" s="30">
-        <v>6948287</v>
+        <v>6948256</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>67</v>
@@ -3423,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="H49" s="18">
         <f>G49*D49</f>
@@ -3433,7 +3405,7 @@
     </row>
     <row r="50" spans="1:9" s="20" customFormat="1">
       <c r="A50" s="30">
-        <v>6948256</v>
+        <v>6948263</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>68</v>
@@ -3448,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H50" s="18">
         <f>G50*D50</f>
@@ -3458,7 +3430,7 @@
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1">
       <c r="A51" s="30">
-        <v>6948263</v>
+        <v>6948249</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>69</v>
@@ -3473,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H51" s="18">
         <f>G51*D51</f>
@@ -3481,60 +3453,35 @@
       </c>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" s="20" customFormat="1">
-      <c r="A52" s="30">
-        <v>6948249</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="17">
-        <v>12</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="18">
-        <f>D52/C52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H52" s="18">
-        <f>G52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="25" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="4">
-        <f>SUM(H4:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4">
+        <f>SUM(H4:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:I52" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3640,7 +3587,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -3685,92 +3632,92 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
-        <v>8785235</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+    <row r="7" spans="1:9" ht="25.5">
+      <c r="A7" s="1">
+        <v>5038411</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f>E7/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.5</v>
+        <f>D7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.18</v>
       </c>
       <c r="H7" s="11">
-        <f>E7</f>
+        <f>G7*D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
-      <c r="A8" s="1">
-        <v>5038411</v>
+      <c r="A8" s="3">
+        <v>8785242</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="11">
-        <f>D8/C8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.18</v>
+        <f>E8/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.5</v>
       </c>
       <c r="H8" s="11">
-        <f>G8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="3">
-        <v>8785242</v>
+      <c r="A9" s="1">
+        <v>5038398</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f>E9/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.5</v>
+        <f>D9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.18</v>
       </c>
       <c r="H9" s="11">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
+        <f>G9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5038398</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>5039609</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -3779,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="11">
         <f>G10*D10</f>
@@ -3787,90 +3734,90 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5039609</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
+    <row r="11" spans="1:9" ht="25.5">
+      <c r="A11" s="3">
+        <v>8785259</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="11">
-        <f>D11/C11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.4</v>
+        <f>E11/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.5</v>
       </c>
       <c r="H11" s="11">
-        <f>G11*D11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
-        <v>8785259</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>53</v>
+        <v>5038855</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="11">
-        <f>E12/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.5</v>
+        <f t="shared" ref="F12:F18" si="0">D12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.2</v>
       </c>
       <c r="H12" s="11">
-        <f>E12</f>
+        <f t="shared" ref="H12:H18" si="1">G12*D12</f>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>5038855</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>41</v>
+        <v>5039647</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="3">
-        <v>5039647</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13">
-        <v>8</v>
+        <v>5038831</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3879,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
@@ -3887,15 +3834,15 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>5038831</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>5039623</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -3904,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
@@ -3914,13 +3861,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>5039623</v>
+        <v>1018950</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -3929,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
@@ -3939,10 +3886,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -3963,11 +3910,11 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3">
-        <v>1018967</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -3979,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
@@ -3992,111 +3939,111 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f>E19/15</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>E20/15</f>
+        <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="11">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>D21/C21</f>
+        <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="11">
-        <f>G21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
+      <c r="A22" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11">
-        <f>E22/15</f>
+        <f t="shared" ref="F22:F28" si="2">D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="11">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" ref="H22:H28" si="3">G22*D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -4104,27 +4051,27 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4141,62 +4088,62 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13">
+    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="A25" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="19">
         <v>0.1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1">
-      <c r="A26" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="17">
-        <v>8</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="18">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="G26" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -4218,13 +4165,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -4233,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="3"/>
@@ -4243,10 +4190,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -4254,106 +4201,106 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="2"/>
+        <f>E29/7.8</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>E30/7.8</f>
+        <f>E30/16.5</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" s="11">
         <f>E30</f>
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/16.5</f>
+        <f t="shared" ref="F31:F45" si="4">D31/C31</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="11">
-        <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="H31:H36" si="5">G31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
         <v>28</v>
-      </c>
-      <c r="C32" s="13">
-        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -4362,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="5"/>
@@ -4372,10 +4319,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -4397,10 +4344,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -4422,10 +4369,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -4437,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="5"/>
@@ -4447,10 +4394,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -4462,23 +4409,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H37:H42" si="6">D37*G37</f>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
+      <c r="A38" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -4487,17 +4434,17 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>50</v>
@@ -4522,7 +4469,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>51</v>
@@ -4547,13 +4494,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -4562,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="6"/>
@@ -4572,10 +4519,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -4596,11 +4543,11 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>54</v>
+      <c r="A43" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -4612,20 +4559,20 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
+        <f>G43*D43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -4645,26 +4592,26 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="13">
-        <v>12</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11">
+    <row r="45" spans="1:9" s="20" customFormat="1">
+      <c r="A45" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="17">
+        <v>10</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
         <f>G45*D45</f>
         <v>0</v>
       </c>
@@ -4672,59 +4619,59 @@
     </row>
     <row r="46" spans="1:9" s="20" customFormat="1">
       <c r="A46" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
+        <f>E46/6</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1.5</v>
       </c>
       <c r="H46" s="18">
-        <f>G46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18"/>
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>8786928</v>
+        <v>6948270</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>E47/6</f>
+        <f>D47/C47</f>
         <v>0</v>
       </c>
       <c r="G47" s="19">
-        <v>1.5</v>
+        <v>0.372</v>
       </c>
       <c r="H47" s="18">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>65</v>
-      </c>
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1">
       <c r="A48" s="30">
-        <v>6948270</v>
+        <v>6948287</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>66</v>
@@ -4739,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H48" s="18">
         <f>G48*D48</f>
@@ -4749,7 +4696,7 @@
     </row>
     <row r="49" spans="1:9" s="20" customFormat="1">
       <c r="A49" s="30">
-        <v>6948287</v>
+        <v>6948256</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>67</v>
@@ -4764,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="H49" s="18">
         <f>G49*D49</f>
@@ -4774,7 +4721,7 @@
     </row>
     <row r="50" spans="1:9" s="20" customFormat="1">
       <c r="A50" s="30">
-        <v>6948256</v>
+        <v>6948263</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>68</v>
@@ -4789,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H50" s="18">
         <f>G50*D50</f>
@@ -4799,7 +4746,7 @@
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1">
       <c r="A51" s="30">
-        <v>6948263</v>
+        <v>6948249</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>69</v>
@@ -4814,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H51" s="18">
         <f>G51*D51</f>
@@ -4822,60 +4769,35 @@
       </c>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" s="20" customFormat="1">
-      <c r="A52" s="30">
-        <v>6948249</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="17">
-        <v>12</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="18">
-        <f>D52/C52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H52" s="18">
-        <f>G52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="25" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="4">
-        <f>SUM(H4:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4">
+        <f>SUM(H4:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A3:I52" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4981,7 +4903,7 @@
         <v>8785204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -5026,92 +4948,92 @@
       </c>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
-        <v>8785235</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
+    <row r="7" spans="1:9" ht="25.5">
+      <c r="A7" s="1">
+        <v>5038411</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="11">
-        <f>E7/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.5</v>
+        <f>D7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.18</v>
       </c>
       <c r="H7" s="11">
-        <f>E7</f>
+        <f>G7*D7</f>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
-      <c r="A8" s="1">
-        <v>5038411</v>
+      <c r="A8" s="3">
+        <v>8785242</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="11">
-        <f>D8/C8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.18</v>
+        <f>E8/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3.5</v>
       </c>
       <c r="H8" s="11">
-        <f>G8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="25.5">
-      <c r="A9" s="3">
-        <v>8785242</v>
+      <c r="A9" s="1">
+        <v>5038398</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="11">
-        <f>E9/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3.5</v>
+        <f>D9/C9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.18</v>
       </c>
       <c r="H9" s="11">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5">
+        <f>G9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5038398</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
+        <v>5039609</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -5120,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="11">
         <f>G10*D10</f>
@@ -5128,90 +5050,90 @@
       </c>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>5039609</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
+    <row r="11" spans="1:9" ht="25.5">
+      <c r="A11" s="3">
+        <v>8785259</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="11">
-        <f>D11/C11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.4</v>
+        <f>E11/16.5</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.5</v>
       </c>
       <c r="H11" s="11">
-        <f>G11*D11</f>
+        <f>E11</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="25.5">
       <c r="A12" s="3">
-        <v>8785259</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>53</v>
+        <v>5038855</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="11">
-        <f>E12/16.5</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3.5</v>
+        <f t="shared" ref="F12:F18" si="0">D12/C12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.2</v>
       </c>
       <c r="H12" s="11">
-        <f>E12</f>
+        <f t="shared" ref="H12:H18" si="1">G12*D12</f>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>5038855</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>41</v>
+        <v>5039647</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="11">
-        <f t="shared" ref="F13:F19" si="0">D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ref="H13:H19" si="1">G13*D13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="A14" s="3">
-        <v>5039647</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13">
-        <v>8</v>
+        <v>5038831</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -5220,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
@@ -5228,15 +5150,15 @@
       </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
-        <v>5038831</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>5039623</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -5245,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
@@ -5255,13 +5177,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>5039623</v>
+        <v>1018950</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -5270,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
@@ -5280,10 +5202,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>1018950</v>
+        <v>1018967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <v>10</v>
@@ -5304,11 +5226,11 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3">
-        <v>1018967</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C18" s="13">
         <v>10</v>
@@ -5320,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
@@ -5333,111 +5255,111 @@
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f>E19/15</f>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="11">
-        <f>E20/15</f>
+        <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H20" s="11">
-        <f>E20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f>G20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="11">
-        <f>D21/C21</f>
+        <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="11">
-        <f>G21*D21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
+      <c r="A22" s="3">
+        <v>8444194</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11">
-        <f>E22/15</f>
+        <f t="shared" ref="F22:F28" si="2">D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="11">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" ref="H22:H28" si="3">G22*D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
-        <v>8444194</v>
+        <v>8444187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13">
         <v>6</v>
@@ -5445,27 +5367,27 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11">
-        <f t="shared" ref="F23:F29" si="2">D23/C23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23:H29" si="3">G23*D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>8444187</v>
+        <v>8444163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -5482,62 +5404,62 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3">
-        <v>8444163</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="13">
+    <row r="25" spans="1:9" s="20" customFormat="1">
+      <c r="A25" s="5">
+        <v>8444170</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17">
         <v>8</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="11">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="19">
         <v>0.1</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1">
-      <c r="A26" s="5">
-        <v>8444170</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="17">
-        <v>8</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="18">
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3">
+        <v>9988377</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="18">
+      <c r="G26" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>9988377</v>
+        <v>9988391</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="13">
         <v>16</v>
@@ -5559,13 +5481,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>9988391</v>
+        <v>5034819</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -5574,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="3"/>
@@ -5584,10 +5506,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>5034819</v>
+        <v>2981244</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="13">
         <v>6</v>
@@ -5595,106 +5517,106 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f t="shared" si="2"/>
+        <f>E29/7.8</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
+        <f>E29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>2981244</v>
+        <v>8785198</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>E30/7.8</f>
+        <f>E30/16.5</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H30" s="11">
         <f>E30</f>
         <v>0</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>8785198</v>
+        <v>9988452</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>E31/16.5</f>
+        <f t="shared" ref="F31:F45" si="4">D31/C31</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H31" s="11">
-        <f>E31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" ref="H31:H36" si="5">G31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>9988452</v>
+        <v>9988476</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13">
         <v>28</v>
-      </c>
-      <c r="C32" s="13">
-        <v>8</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f t="shared" ref="F32:F46" si="4">D32/C32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.4</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32:H37" si="5">G32*D32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3">
-        <v>9988476</v>
+        <v>9988681</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="13">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -5703,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="5"/>
@@ -5713,10 +5635,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
-        <v>9988681</v>
+        <v>9988438</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C34" s="13">
         <v>16</v>
@@ -5738,10 +5660,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>9988438</v>
+        <v>9988445</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="13">
         <v>16</v>
@@ -5763,10 +5685,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>9988445</v>
+        <v>9988421</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="13">
         <v>16</v>
@@ -5778,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="5"/>
@@ -5788,10 +5710,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>9988421</v>
+        <v>9988674</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37" s="13">
         <v>16</v>
@@ -5803,23 +5725,23 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H37:H42" si="6">D37*G37</f>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="3">
-        <v>9988674</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>38</v>
+      <c r="A38" s="34">
+        <v>8444903</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -5828,17 +5750,17 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38:H43" si="6">D38*G38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="34">
-        <v>8444903</v>
+        <v>8444910</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>50</v>
@@ -5863,7 +5785,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="34">
-        <v>8444910</v>
+        <v>8444927</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>51</v>
@@ -5888,13 +5810,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="34">
-        <v>8444927</v>
+        <v>6600454</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -5903,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="6"/>
@@ -5913,10 +5835,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="34">
-        <v>6600454</v>
+        <v>6600447</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13">
         <v>12</v>
@@ -5937,11 +5859,11 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="34">
-        <v>6600447</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>54</v>
+      <c r="A43" s="27">
+        <v>4421584</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="13">
         <v>12</v>
@@ -5953,20 +5875,20 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.125</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
+        <f>G43*D43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="27">
-        <v>4421584</v>
+        <v>4421577</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="13">
         <v>12</v>
@@ -5986,26 +5908,26 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27">
-        <v>4421577</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="13">
-        <v>12</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11">
+    <row r="45" spans="1:9" s="20" customFormat="1">
+      <c r="A45" s="30">
+        <v>9985949</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="17">
+        <v>10</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="H45" s="11">
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
         <f>G45*D45</f>
         <v>0</v>
       </c>
@@ -6013,59 +5935,59 @@
     </row>
     <row r="46" spans="1:9" s="20" customFormat="1">
       <c r="A46" s="30">
-        <v>9985949</v>
+        <v>8786928</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
+        <f>E46/6</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1.5</v>
       </c>
       <c r="H46" s="18">
-        <f>G46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="18"/>
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="20" customFormat="1">
       <c r="A47" s="30">
-        <v>8786928</v>
+        <v>6948270</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="18">
-        <f>E47/6</f>
+        <f>D47/C47</f>
         <v>0</v>
       </c>
       <c r="G47" s="19">
-        <v>1.5</v>
+        <v>0.372</v>
       </c>
       <c r="H47" s="18">
-        <f>E47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>65</v>
-      </c>
+        <f>G47*D47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" s="20" customFormat="1">
       <c r="A48" s="30">
-        <v>6948270</v>
+        <v>6948287</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>66</v>
@@ -6080,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H48" s="18">
         <f>G48*D48</f>
@@ -6090,7 +6012,7 @@
     </row>
     <row r="49" spans="1:9" s="20" customFormat="1">
       <c r="A49" s="30">
-        <v>6948287</v>
+        <v>6948256</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>67</v>
@@ -6105,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="H49" s="18">
         <f>G49*D49</f>
@@ -6115,7 +6037,7 @@
     </row>
     <row r="50" spans="1:9" s="20" customFormat="1">
       <c r="A50" s="30">
-        <v>6948256</v>
+        <v>6948263</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>68</v>
@@ -6130,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <v>0.372</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="H50" s="18">
         <f>G50*D50</f>
@@ -6140,7 +6062,7 @@
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1">
       <c r="A51" s="30">
-        <v>6948263</v>
+        <v>6948249</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>69</v>
@@ -6155,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="19">
-        <v>0.74399999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H51" s="18">
         <f>G51*D51</f>
@@ -6163,49 +6085,24 @@
       </c>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" s="20" customFormat="1">
-      <c r="A52" s="30">
-        <v>6948249</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="17">
-        <v>12</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="18">
-        <f>D52/C52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H52" s="18">
-        <f>G52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="25" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" s="11"/>
+      <c r="B52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="4">
-        <f>SUM(H4:H52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4">
+        <f>SUM(H4:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A3:I52" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>